--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.2314380881851</v>
+        <v>436.5914380881763</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.32314874444808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.32314874444808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364.5800000000087</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7182662229619</v>
+        <v>17.93504247831764</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.38309702850569</v>
+        <v>17.27021167277385</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67685125555193</v>
+        <v>15.97645744572761</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>26.12542493160267</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.12542493160267</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,76 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.97499999999985</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.46999999999986</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.41999999999985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.46999999999986</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4200000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>136.0750000000004</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>140.1850000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9550000000004</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.3200000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9950000000003</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>192.0400000000012</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>177.55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.1100000000012</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>179.6100000000012</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>185.0800000000012</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0400000000012</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1100000000012</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6100000000012</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0800000000012</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999997</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2049999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9950000000003</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.04000000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.11000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.61000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.08000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.204999999999659</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.995000000000005</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1955,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,10 +1915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2051,10 +1926,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2062,10 +1937,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2073,10 +1948,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2084,45 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
